--- a/task.xlsx
+++ b/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">company2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eeeee</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -175,7 +178,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,8 +470,8 @@
       <c r="C10" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>26</v>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>36</v>
@@ -921,7 +924,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/task.xlsx
+++ b/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">company2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eeeee</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -178,7 +175,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -470,8 +467,8 @@
       <c r="C10" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
+      <c r="D10" s="4" t="n">
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>36</v>
@@ -924,7 +921,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
